--- a/Control.xlsx
+++ b/Control.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="119">
   <si>
     <t>Caso de uso</t>
   </si>
@@ -210,9 +210,6 @@
     <t>View/incidencias/modificarJefe.php</t>
   </si>
   <si>
-    <t>SIN IMPLEMENTAR</t>
-  </si>
-  <si>
     <t>View/usuarios/altaInternoJefe.php</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>View/iteraciones/consultarJefe.php</t>
   </si>
   <si>
-    <t>View/iteraciones/modificarJefe.php</t>
-  </si>
-  <si>
     <t>View/maquinas/altaJefe.php</t>
   </si>
   <si>
@@ -384,16 +378,10 @@
     <t>Sergio</t>
   </si>
   <si>
-    <t>Nota: desactivar JS (dni)</t>
-  </si>
-  <si>
-    <t>Alejandro:</t>
-  </si>
-  <si>
     <t>En este documento se anotan las variables de sesión que se usan (no se puede repetir ninguna)</t>
   </si>
   <si>
-    <t>anotar las variables de sesión en la hoja y acabar con JavaScript</t>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -862,60 +850,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -938,6 +872,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1219,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF47"/>
+  <dimension ref="A1:AF45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
+    <sheetView tabSelected="1" topLeftCell="U22" workbookViewId="0">
+      <selection activeCell="AD41" sqref="AD41:AE41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1250,98 +1238,98 @@
   <sheetData>
     <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="Q2" s="26" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="Q2" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="39"/>
+      <c r="X2" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="39"/>
+    </row>
+    <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="41"/>
+      <c r="S3" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="X2" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="28"/>
-    </row>
-    <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="37" t="s">
+      <c r="T3" s="41"/>
+      <c r="U3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="41"/>
+      <c r="X3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="34" t="s">
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="30"/>
-      <c r="S3" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="V3" s="30"/>
-      <c r="X3" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC3" s="30"/>
+      <c r="AC3" s="41"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>5</v>
@@ -1350,10 +1338,10 @@
         <v>52</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>5</v>
@@ -1362,10 +1350,10 @@
         <v>52</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>5</v>
@@ -1374,52 +1362,52 @@
         <v>52</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R4" s="23" t="s">
         <v>52</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T4" s="23" t="s">
         <v>52</v>
       </c>
       <c r="U4" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="V4" s="23" t="s">
         <v>52</v>
       </c>
       <c r="X4" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Y4" s="23" t="s">
         <v>52</v>
       </c>
       <c r="Z4" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AA4" s="23" t="s">
         <v>52</v>
       </c>
       <c r="AB4" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AC4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AF4" s="54"/>
+      <c r="AF4" s="36"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
         <v>46</v>
@@ -1453,18 +1441,18 @@
       <c r="O5" s="3"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S5" s="21"/>
       <c r="T5" s="23"/>
       <c r="U5" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V5" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="X5" s="21"/>
       <c r="Y5" s="23"/>
@@ -1474,10 +1462,10 @@
       <c r="AC5" s="23"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
         <v>46</v>
@@ -1493,7 +1481,7 @@
         <v>46</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="3">
@@ -1503,7 +1491,7 @@
         <v>46</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="3">
@@ -1511,41 +1499,45 @@
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="T6" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="T6" s="23" t="s">
-        <v>111</v>
-      </c>
       <c r="U6" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="V6" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="X6" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="V6" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="X6" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA6" s="23"/>
+      <c r="AA6" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="AB6" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AC6" s="23"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
         <v>46</v>
@@ -1571,10 +1563,10 @@
       <c r="O7" s="3"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S7" s="21"/>
       <c r="T7" s="23"/>
@@ -1588,10 +1580,10 @@
       <c r="AC7" s="23"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
         <v>46</v>
@@ -1617,29 +1609,31 @@
       <c r="O8" s="3"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S8" s="21"/>
       <c r="T8" s="23"/>
       <c r="U8" s="21"/>
       <c r="V8" s="23"/>
       <c r="X8" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y8" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="Y8" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="Z8" s="21"/>
       <c r="AA8" s="23"/>
       <c r="AB8" s="21"/>
       <c r="AC8" s="23"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1" t="s">
         <v>46</v>
@@ -1665,29 +1659,31 @@
       <c r="O9" s="3"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S9" s="21"/>
       <c r="T9" s="23"/>
       <c r="U9" s="21"/>
       <c r="V9" s="23"/>
       <c r="X9" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y9" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="Y9" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="Z9" s="21"/>
       <c r="AA9" s="23"/>
       <c r="AB9" s="21"/>
       <c r="AC9" s="23"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
         <v>46</v>
@@ -1709,7 +1705,7 @@
         <v>46</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>46</v>
@@ -1717,18 +1713,18 @@
       <c r="O10" s="3"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="23"/>
       <c r="U10" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V10" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="X10" s="21"/>
       <c r="Y10" s="23"/>
@@ -1738,10 +1734,10 @@
       <c r="AC10" s="23"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
         <v>46</v>
@@ -1757,59 +1753,61 @@
         <v>46</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R11" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T11" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V11" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="X11" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y11" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="Y11" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="Z11" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AA11" s="23"/>
       <c r="AB11" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AC11" s="23"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
         <v>46</v>
@@ -1825,7 +1823,7 @@
         <v>46</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="3">
@@ -1835,7 +1833,7 @@
         <v>46</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>46</v>
@@ -1843,37 +1841,39 @@
       <c r="O12" s="3"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R12" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="T12" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="U12" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="S12" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="T12" s="23" t="s">
+      <c r="V12" s="23" t="s">
         <v>111</v>
-      </c>
-      <c r="U12" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="V12" s="23" t="s">
-        <v>113</v>
       </c>
       <c r="X12" s="21"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA12" s="23"/>
+        <v>115</v>
+      </c>
+      <c r="AA12" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="AB12" s="21"/>
       <c r="AC12" s="23"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
         <v>46</v>
@@ -1889,7 +1889,7 @@
         <v>46</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>46</v>
@@ -1899,7 +1899,7 @@
         <v>46</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>46</v>
@@ -1907,35 +1907,37 @@
       <c r="O13" s="3"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S13" s="21"/>
       <c r="T13" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="U13" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="U13" s="21" t="s">
-        <v>115</v>
-      </c>
       <c r="V13" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="X13" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y13" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="Y13" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="Z13" s="21"/>
       <c r="AA13" s="23"/>
       <c r="AB13" s="21"/>
       <c r="AC13" s="23"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="32"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
         <v>46</v>
@@ -1961,32 +1963,32 @@
       <c r="O14" s="3"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R14" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S14" s="21"/>
       <c r="T14" s="23"/>
       <c r="U14" s="21"/>
       <c r="V14" s="23"/>
       <c r="X14" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y14" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="Y14" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="Z14" s="21"/>
       <c r="AA14" s="23"/>
       <c r="AB14" s="21"/>
       <c r="AC14" s="23"/>
     </row>
     <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2000,43 +2002,49 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="R15" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="S15" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="T15" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="U15" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="V15" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="X15" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC15" s="45"/>
+      <c r="Q15" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="R15" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="S15" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="T15" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="U15" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="V15" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="X15" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z15" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB15" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC15" s="27" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="14"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -2050,30 +2058,30 @@
       <c r="N16" s="10"/>
       <c r="O16" s="16"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="48"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="48"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="30"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="30"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>46</v>
@@ -2092,32 +2100,32 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="R17" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="S17" s="46"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="47"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="47"/>
+      <c r="Q17" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="R17" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="S17" s="28"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="29"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="29"/>
     </row>
     <row r="18" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>46</v>
@@ -2136,28 +2144,28 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="R18" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="S18" s="44"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="45"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="45"/>
+      <c r="Q18" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="R18" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="S18" s="26"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="27"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="27"/>
     </row>
     <row r="19" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="33"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
@@ -2178,30 +2186,30 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="48"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="48"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="30"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="30"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>46</v>
@@ -2211,7 +2219,7 @@
         <v>46</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>46</v>
@@ -2221,47 +2229,47 @@
         <v>46</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="R20" s="47" t="s">
+      <c r="Q20" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="R20" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="S20" s="28"/>
+      <c r="T20" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="U20" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="S20" s="46"/>
-      <c r="T20" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="U20" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="V20" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="47"/>
+      <c r="V20" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="29"/>
     </row>
     <row r="21" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="33"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>46</v>
@@ -2271,7 +2279,7 @@
         <v>46</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>46</v>
@@ -2281,42 +2289,42 @@
         <v>46</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="R21" s="45" t="s">
+      <c r="Q21" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="R21" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="S21" s="26"/>
+      <c r="T21" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="U21" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="S21" s="44"/>
-      <c r="T21" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="U21" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="V21" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="45"/>
+      <c r="V21" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="27"/>
     </row>
     <row r="22" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="14"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2330,30 +2338,30 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="48"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="49"/>
-      <c r="AC22" s="48"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="30"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="30"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="33"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3">
@@ -2363,7 +2371,7 @@
         <v>46</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="3">
@@ -2376,34 +2384,36 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="R23" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="S23" s="46"/>
-      <c r="T23" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="U23" s="46"/>
-      <c r="V23" s="47"/>
-      <c r="X23" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="47"/>
+      <c r="Q23" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="R23" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="S23" s="28"/>
+      <c r="T23" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="U23" s="28"/>
+      <c r="V23" s="29"/>
+      <c r="X23" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y23" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z23" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="29"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
         <v>46</v>
@@ -2419,7 +2429,7 @@
         <v>46</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="3">
@@ -2433,33 +2443,35 @@
       <c r="O24" s="19"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R24" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S24" s="21"/>
       <c r="T24" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="U24" s="21"/>
       <c r="V24" s="23"/>
       <c r="X24" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y24" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="Y24" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="Z24" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AA24" s="23"/>
       <c r="AB24" s="21"/>
       <c r="AC24" s="23"/>
     </row>
     <row r="25" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="33"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
         <v>46</v>
@@ -2475,7 +2487,7 @@
         <v>46</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="3">
@@ -2485,48 +2497,48 @@
         <v>46</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="3">
         <v>3.4</v>
       </c>
       <c r="P25" s="4"/>
-      <c r="Q25" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="R25" s="45" t="s">
+      <c r="Q25" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="R25" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="S25" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="T25" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="U25" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="S25" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="T25" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="U25" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="V25" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC25" s="45"/>
+      <c r="V25" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC25" s="27"/>
     </row>
     <row r="26" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="14"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2540,24 +2552,24 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="48"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="49"/>
-      <c r="AC26" s="48"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="30"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="30"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="33"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1" t="s">
         <v>49</v>
@@ -2569,7 +2581,7 @@
         <v>46</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="3">
@@ -2579,57 +2591,53 @@
         <v>46</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="3">
         <v>3.5</v>
       </c>
       <c r="P27" s="4"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="U27" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="V27" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="46" t="s">
+      <c r="Q27" s="28"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="U27" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="V27" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="AA27" s="47"/>
-      <c r="AB27" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC27" s="47"/>
+      <c r="AC27" s="29"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="33"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="3">
-        <v>1.8</v>
-      </c>
+      <c r="G28" s="3"/>
       <c r="H28" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="3">
@@ -2639,7 +2647,7 @@
         <v>46</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="3">
@@ -2647,45 +2655,43 @@
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R28" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S28" s="21"/>
       <c r="T28" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="U28" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V28" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="X28" s="21" t="s">
-        <v>114</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="X28" s="21"/>
       <c r="Y28" s="23"/>
       <c r="Z28" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AA28" s="23"/>
       <c r="AB28" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AC28" s="23"/>
     </row>
     <row r="29" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="33"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>46</v>
@@ -2695,7 +2701,7 @@
         <v>46</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>46</v>
@@ -2705,44 +2711,44 @@
         <v>46</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="3">
         <v>3.6</v>
       </c>
       <c r="P29" s="4"/>
-      <c r="Q29" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="R29" s="45" t="s">
+      <c r="Q29" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="R29" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="S29" s="26"/>
+      <c r="T29" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="U29" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="S29" s="44"/>
-      <c r="T29" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="U29" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="V29" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC29" s="45"/>
+      <c r="V29" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC29" s="27"/>
     </row>
     <row r="30" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="14"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2756,31 +2762,31 @@
       <c r="N30" s="2"/>
       <c r="O30" s="3"/>
       <c r="P30" s="4"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="48"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="30"/>
       <c r="W30" s="4"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="49"/>
-      <c r="AA30" s="48"/>
-      <c r="AB30" s="49"/>
-      <c r="AC30" s="48"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="30"/>
     </row>
     <row r="31" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="33"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>46</v>
@@ -2799,24 +2805,24 @@
       <c r="N31" s="2"/>
       <c r="O31" s="3"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="53"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="53"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="35"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="35"/>
     </row>
     <row r="32" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="33"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="2" t="s">
         <v>50</v>
       </c>
@@ -2837,30 +2843,30 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="48"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="49"/>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="49"/>
-      <c r="AC32" s="48"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="30"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="30"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="33"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="3">
@@ -2879,36 +2885,38 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="R33" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="S33" s="46"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="47"/>
-      <c r="X33" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y33" s="47"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="47"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="47"/>
+      <c r="Q33" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="R33" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="S33" s="28"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="29"/>
+      <c r="X33" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y33" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="29"/>
     </row>
     <row r="34" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="33"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="3">
@@ -2918,7 +2926,7 @@
         <v>46</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>46</v>
@@ -2928,46 +2936,48 @@
         <v>46</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>46</v>
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="R34" s="45" t="s">
+      <c r="Q34" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="R34" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="S34" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="T34" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="S34" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="T34" s="45" t="s">
+      <c r="U34" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="U34" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="V34" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="X34" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="44"/>
-      <c r="AA34" s="45"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="45"/>
+      <c r="V34" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="X34" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y34" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="27"/>
     </row>
     <row r="35" spans="1:29" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="14"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -2981,30 +2991,30 @@
       <c r="N35" s="9"/>
       <c r="O35" s="15"/>
       <c r="P35" s="18"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="50"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="49"/>
-      <c r="AC35" s="50"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="32"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="32"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="33"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="2"/>
       <c r="D36" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>46</v>
@@ -3023,28 +3033,28 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
       <c r="P36" s="4"/>
-      <c r="Q36" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="R36" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="S36" s="46"/>
-      <c r="T36" s="47"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="47"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="47"/>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="47"/>
-      <c r="AB36" s="46"/>
-      <c r="AC36" s="47"/>
+      <c r="Q36" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="R36" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="S36" s="28"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="29"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="29"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="33"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="2"/>
       <c r="D37" s="1" t="s">
         <v>46</v>
@@ -3068,10 +3078,10 @@
       <c r="O37" s="3"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R37" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S37" s="21"/>
       <c r="T37" s="23"/>
@@ -3085,16 +3095,16 @@
       <c r="AC37" s="23"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="33"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="3">
@@ -3114,35 +3124,37 @@
       <c r="O38" s="3"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R38" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S38" s="21"/>
       <c r="T38" s="23"/>
       <c r="U38" s="21"/>
       <c r="V38" s="23"/>
       <c r="X38" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y38" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="Y38" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="Z38" s="21"/>
       <c r="AA38" s="23"/>
       <c r="AB38" s="21"/>
       <c r="AC38" s="23"/>
     </row>
     <row r="39" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="33"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="2"/>
       <c r="D39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="3">
@@ -3158,44 +3170,48 @@
         <v>46</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="3">
         <v>3.7</v>
       </c>
       <c r="P39" s="4"/>
-      <c r="Q39" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="R39" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="S39" s="44"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="V39" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="X39" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC39" s="45"/>
+      <c r="Q39" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="R39" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="S39" s="26"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="V39" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="X39" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y39" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC39" s="27" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="40" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="14"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -3209,30 +3225,30 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
       <c r="P40" s="4"/>
-      <c r="Q40" s="49"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="49"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="49"/>
-      <c r="V40" s="48"/>
-      <c r="X40" s="49"/>
-      <c r="Y40" s="48"/>
-      <c r="Z40" s="49"/>
-      <c r="AA40" s="48"/>
-      <c r="AB40" s="49"/>
-      <c r="AC40" s="48"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="30"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="30"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="30"/>
     </row>
     <row r="41" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="33"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="2"/>
       <c r="D41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>46</v>
@@ -3251,28 +3267,28 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="R41" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="S41" s="52"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="53"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="53"/>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="53"/>
-      <c r="AB41" s="52"/>
-      <c r="AC41" s="53"/>
+      <c r="Q41" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="R41" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="S41" s="34"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="35"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="35"/>
     </row>
     <row r="42" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="33"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="2" t="s">
         <v>50</v>
       </c>
@@ -3295,28 +3311,28 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
       <c r="P42" s="4"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="49"/>
-      <c r="V42" s="48"/>
-      <c r="X42" s="49"/>
-      <c r="Y42" s="48"/>
-      <c r="Z42" s="49"/>
-      <c r="AA42" s="48"/>
-      <c r="AB42" s="49"/>
-      <c r="AC42" s="48"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="31"/>
+      <c r="V42" s="30"/>
+      <c r="X42" s="31"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="31"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="31"/>
+      <c r="AC42" s="30"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="33"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>46</v>
@@ -3335,34 +3351,34 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
       <c r="P43" s="4"/>
-      <c r="Q43" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="R43" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="S43" s="46"/>
-      <c r="T43" s="47"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="47"/>
-      <c r="X43" s="46"/>
-      <c r="Y43" s="47"/>
-      <c r="Z43" s="46"/>
-      <c r="AA43" s="47"/>
-      <c r="AB43" s="46"/>
-      <c r="AC43" s="47"/>
+      <c r="Q43" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="R43" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="S43" s="28"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="29"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="29"/>
     </row>
     <row r="44" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="33"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="2"/>
       <c r="D44" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>46</v>
@@ -3382,10 +3398,10 @@
       <c r="O44" s="7"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R44" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S44" s="22"/>
       <c r="T44" s="24"/>
@@ -3402,21 +3418,46 @@
       <c r="D45" s="13"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="X46" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="X47" t="s">
-        <v>119</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="X2:AC2"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
@@ -3433,44 +3474,6 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3489,7 +3492,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Control.xlsx
+++ b/Control.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Galrich\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatiux\Desktop\Fractum2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8232"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="123">
   <si>
     <t>Caso de uso</t>
   </si>
@@ -204,15 +204,9 @@
     <t>View/incidencias/consultarJefe.php</t>
   </si>
   <si>
-    <t>1.4?</t>
-  </si>
-  <si>
     <t>View/incidencias/modificarJefe.php</t>
   </si>
   <si>
-    <t>SIN IMPLEMENTAR</t>
-  </si>
-  <si>
     <t>View/usuarios/altaInternoJefe.php</t>
   </si>
   <si>
@@ -270,9 +264,6 @@
     <t>Detalle</t>
   </si>
   <si>
-    <t>1.3,2.2</t>
-  </si>
-  <si>
     <t>View/incidencias/listarInterno.php</t>
   </si>
   <si>
@@ -394,6 +385,15 @@
   </si>
   <si>
     <t>anotar las variables de sesión en la hoja y acabar con JavaScript</t>
+  </si>
+  <si>
+    <t>View/usuarios/buscarJefe.php</t>
+  </si>
+  <si>
+    <t>View/usuarios/buscarInterno.php</t>
+  </si>
+  <si>
+    <t>View/usuarios/buscarExterno.php</t>
   </si>
 </sst>
 </file>
@@ -801,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -862,59 +862,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -939,6 +888,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1221,127 +1225,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
+    <sheetView tabSelected="1" topLeftCell="R8" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="41" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.77734375" customWidth="1"/>
-    <col min="18" max="18" width="10.77734375" style="20" customWidth="1"/>
-    <col min="19" max="19" width="15.77734375" customWidth="1"/>
-    <col min="20" max="20" width="10.77734375" style="20" customWidth="1"/>
-    <col min="21" max="21" width="15.77734375" customWidth="1"/>
-    <col min="22" max="22" width="10.77734375" style="20" customWidth="1"/>
-    <col min="24" max="24" width="15.77734375" customWidth="1"/>
-    <col min="26" max="26" width="15.77734375" customWidth="1"/>
-    <col min="28" max="28" width="15.77734375" customWidth="1"/>
+    <col min="13" max="13" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="20" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="20" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="20" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+    <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="Q2" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="X2" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="28"/>
-    </row>
-    <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="37" t="s">
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="Q2" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="40"/>
+      <c r="X2" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="40"/>
+    </row>
+    <row r="3" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40" t="s">
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="34" t="s">
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="36"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="55"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="30"/>
-      <c r="S3" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="29" t="s">
+      <c r="R3" s="42"/>
+      <c r="S3" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="T3" s="42"/>
+      <c r="U3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="30"/>
-      <c r="X3" s="29" t="s">
+      <c r="V3" s="42"/>
+      <c r="X3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="29" t="s">
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="30"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+      <c r="AC3" s="42"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>5</v>
@@ -1350,10 +1354,10 @@
         <v>52</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>5</v>
@@ -1362,10 +1366,10 @@
         <v>52</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>5</v>
@@ -1374,52 +1378,52 @@
         <v>52</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="R4" s="23" t="s">
         <v>52</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T4" s="23" t="s">
         <v>52</v>
       </c>
       <c r="U4" s="25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="V4" s="23" t="s">
         <v>52</v>
       </c>
       <c r="X4" s="25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y4" s="23" t="s">
         <v>52</v>
       </c>
       <c r="Z4" s="25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AA4" s="23" t="s">
         <v>52</v>
       </c>
       <c r="AB4" s="25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AC4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AF4" s="54"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="AF4" s="37"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
         <v>46</v>
@@ -1453,18 +1457,18 @@
       <c r="O5" s="3"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="S5" s="21"/>
       <c r="T5" s="23"/>
       <c r="U5" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="V5" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="X5" s="21"/>
       <c r="Y5" s="23"/>
@@ -1473,11 +1477,11 @@
       <c r="AB5" s="21"/>
       <c r="AC5" s="23"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
         <v>46</v>
@@ -1493,17 +1497,17 @@
         <v>46</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3">
-        <v>2.1</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="3"/>
       <c r="L6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="3">
@@ -1511,41 +1515,45 @@
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="T6" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="V6" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="X6" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y6" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z6" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="R6" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="S6" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="T6" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="U6" s="21" t="s">
+      <c r="AA6" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB6" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="V6" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="X6" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="21" t="s">
-        <v>118</v>
-      </c>
       <c r="AC6" s="23"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
         <v>46</v>
@@ -1571,10 +1579,10 @@
       <c r="O7" s="3"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="S7" s="21"/>
       <c r="T7" s="23"/>
@@ -1587,11 +1595,11 @@
       <c r="AB7" s="21"/>
       <c r="AC7" s="23"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
         <v>46</v>
@@ -1599,10 +1607,10 @@
       <c r="E8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3">
-        <v>1.2</v>
-      </c>
+      <c r="F8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="1" t="s">
         <v>49</v>
       </c>
@@ -1617,29 +1625,31 @@
       <c r="O8" s="3"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S8" s="21"/>
       <c r="T8" s="23"/>
       <c r="U8" s="21"/>
       <c r="V8" s="23"/>
       <c r="X8" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y8" s="23"/>
+        <v>111</v>
+      </c>
+      <c r="Y8" s="23" t="s">
+        <v>110</v>
+      </c>
       <c r="Z8" s="21"/>
       <c r="AA8" s="23"/>
       <c r="AB8" s="21"/>
       <c r="AC8" s="23"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1" t="s">
         <v>46</v>
@@ -1647,10 +1657,10 @@
       <c r="E9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3">
-        <v>1.2</v>
-      </c>
+      <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="1" t="s">
         <v>49</v>
       </c>
@@ -1665,29 +1675,31 @@
       <c r="O9" s="3"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S9" s="21"/>
       <c r="T9" s="23"/>
       <c r="U9" s="21"/>
       <c r="V9" s="23"/>
       <c r="X9" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y9" s="23"/>
+        <v>111</v>
+      </c>
+      <c r="Y9" s="23" t="s">
+        <v>110</v>
+      </c>
       <c r="Z9" s="21"/>
       <c r="AA9" s="23"/>
       <c r="AB9" s="21"/>
       <c r="AC9" s="23"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
         <v>46</v>
@@ -1709,7 +1721,7 @@
         <v>46</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>46</v>
@@ -1717,18 +1729,18 @@
       <c r="O10" s="3"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="23"/>
       <c r="U10" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="V10" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="X10" s="21"/>
       <c r="Y10" s="23"/>
@@ -1737,11 +1749,11 @@
       <c r="AB10" s="21"/>
       <c r="AC10" s="23"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
         <v>46</v>
@@ -1750,66 +1762,70 @@
         <v>55</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="3" t="s">
-        <v>57</v>
+      <c r="G11" s="3">
+        <v>1.1000000000000001</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="3"/>
       <c r="L11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R11" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="T11" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="U11" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="V11" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="X11" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y11" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z11" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA11" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB11" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="V11" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="X11" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="21" t="s">
-        <v>118</v>
-      </c>
       <c r="AC11" s="23"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
         <v>46</v>
@@ -1825,17 +1841,17 @@
         <v>46</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3">
-        <v>2.2999999999999998</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="3"/>
       <c r="L12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>46</v>
@@ -1843,37 +1859,39 @@
       <c r="O12" s="3"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T12" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="V12" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="X12" s="21"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA12" s="23"/>
+        <v>114</v>
+      </c>
+      <c r="AA12" s="23" t="s">
+        <v>110</v>
+      </c>
       <c r="AB12" s="21"/>
       <c r="AC12" s="23"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
         <v>46</v>
@@ -1881,15 +1899,15 @@
       <c r="E13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="F13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>46</v>
@@ -1899,7 +1917,7 @@
         <v>46</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>46</v>
@@ -1907,45 +1925,47 @@
       <c r="O13" s="3"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S13" s="21"/>
       <c r="T13" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="V13" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="X13" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y13" s="23"/>
+        <v>111</v>
+      </c>
+      <c r="Y13" s="23" t="s">
+        <v>110</v>
+      </c>
       <c r="Z13" s="21"/>
       <c r="AA13" s="23"/>
       <c r="AB13" s="21"/>
       <c r="AC13" s="23"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="32"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="3">
-        <v>1.5</v>
+      <c r="G14" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>49</v>
@@ -1961,82 +1981,106 @@
       <c r="O14" s="3"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R14" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S14" s="21"/>
       <c r="T14" s="23"/>
       <c r="U14" s="21"/>
       <c r="V14" s="23"/>
       <c r="X14" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y14" s="23"/>
+        <v>111</v>
+      </c>
+      <c r="Y14" s="23" t="s">
+        <v>108</v>
+      </c>
       <c r="Z14" s="21"/>
       <c r="AA14" s="23"/>
       <c r="AB14" s="21"/>
       <c r="AC14" s="23"/>
     </row>
-    <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="32" t="s">
+    <row r="15" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="2"/>
+      <c r="G15" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>121</v>
+      </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="2"/>
+      <c r="K15" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>122</v>
+      </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="3"/>
+      <c r="O15" s="3">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="P15" s="4"/>
-      <c r="Q15" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="R15" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="S15" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="T15" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="U15" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="V15" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="X15" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC15" s="45"/>
-    </row>
-    <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
+      <c r="Q15" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="S15" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="T15" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="U15" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="V15" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="X15" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y15" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z15" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA15" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB15" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC15" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="14"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -2050,30 +2094,30 @@
       <c r="N16" s="10"/>
       <c r="O16" s="16"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="48"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="48"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="Q16" s="32"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="31"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="31"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>46</v>
@@ -2092,32 +2136,32 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="R17" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="S17" s="46"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="47"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="47"/>
-    </row>
-    <row r="18" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
+      <c r="Q17" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="R17" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="S17" s="29"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="30"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="30"/>
+    </row>
+    <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>46</v>
@@ -2136,28 +2180,28 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="R18" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="S18" s="44"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="45"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="45"/>
-    </row>
-    <row r="19" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="33" t="s">
+      <c r="Q18" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="R18" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="S18" s="27"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="28"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="28"/>
+    </row>
+    <row r="19" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="33"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
@@ -2178,30 +2222,30 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="48"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="48"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
+      <c r="Q19" s="32"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="31"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="31"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>46</v>
@@ -2211,7 +2255,7 @@
         <v>46</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>46</v>
@@ -2221,47 +2265,47 @@
         <v>46</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="R20" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="S20" s="46"/>
-      <c r="T20" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="U20" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="V20" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="47"/>
-    </row>
-    <row r="21" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="33" t="s">
+      <c r="Q20" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="R20" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="S20" s="29"/>
+      <c r="T20" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="U20" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="V20" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="30"/>
+    </row>
+    <row r="21" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="33"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>46</v>
@@ -2271,7 +2315,7 @@
         <v>46</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>46</v>
@@ -2281,42 +2325,42 @@
         <v>46</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="R21" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="S21" s="44"/>
-      <c r="T21" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="U21" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="V21" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="45"/>
-    </row>
-    <row r="22" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
+      <c r="Q21" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="R21" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="S21" s="27"/>
+      <c r="T21" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U21" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="V21" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="28"/>
+    </row>
+    <row r="22" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="14"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2330,45 +2374,45 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="48"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="49"/>
-      <c r="AC22" s="48"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+      <c r="Q22" s="32"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="31"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="31"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="33"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="3">
-        <v>1.3</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="3"/>
       <c r="L23" s="1" t="s">
         <v>49</v>
       </c>
@@ -2376,54 +2420,58 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="R23" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="S23" s="46"/>
-      <c r="T23" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="U23" s="46"/>
-      <c r="V23" s="47"/>
-      <c r="X23" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="47"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="Q23" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="R23" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="S23" s="29"/>
+      <c r="T23" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="U23" s="29"/>
+      <c r="V23" s="30"/>
+      <c r="X23" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y23" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z23" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA23" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="30"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="19">
-        <v>1.7</v>
+      <c r="G24" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="3">
-        <v>2.5</v>
+      <c r="K24" s="19">
+        <v>2.1</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>49</v>
@@ -2433,33 +2481,35 @@
       <c r="O24" s="19"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R24" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S24" s="21"/>
       <c r="T24" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="U24" s="21"/>
       <c r="V24" s="23"/>
       <c r="X24" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Y24" s="23"/>
       <c r="Z24" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA24" s="23"/>
+        <v>107</v>
+      </c>
+      <c r="AA24" s="23" t="s">
+        <v>108</v>
+      </c>
       <c r="AB24" s="21"/>
       <c r="AC24" s="23"/>
     </row>
-    <row r="25" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="33" t="s">
+    <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="33"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
         <v>46</v>
@@ -2475,58 +2525,60 @@
         <v>46</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="3">
-        <v>2.4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="3"/>
       <c r="L25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="3">
         <v>3.4</v>
       </c>
       <c r="P25" s="4"/>
-      <c r="Q25" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="R25" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="S25" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="T25" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="U25" s="44" t="s">
+      <c r="Q25" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="R25" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="S25" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="T25" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="U25" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="V25" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA25" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB25" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="V25" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC25" s="45"/>
-    </row>
-    <row r="26" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="32" t="s">
+      <c r="AC25" s="28"/>
+    </row>
+    <row r="26" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="14"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2540,24 +2592,24 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="48"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="49"/>
-      <c r="AC26" s="48"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
+      <c r="Q26" s="32"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="31"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="31"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="33"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1" t="s">
         <v>49</v>
@@ -2569,77 +2621,77 @@
         <v>46</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="3">
-        <v>2.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>46</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="3">
         <v>3.5</v>
       </c>
       <c r="P27" s="4"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="U27" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="V27" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA27" s="47"/>
-      <c r="AB27" s="46" t="s">
+      <c r="Q27" s="29"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="U27" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="AC27" s="47"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" s="33" t="s">
+      <c r="V27" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA27" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB27" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC27" s="30"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="33"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="3">
-        <v>1.8</v>
-      </c>
+      <c r="G28" s="3"/>
       <c r="H28" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="3">
-        <v>1.8</v>
+      <c r="K28" s="19">
+        <v>2.2999999999999998</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>46</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="3">
@@ -2647,45 +2699,45 @@
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R28" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S28" s="21"/>
       <c r="T28" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="U28" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="V28" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="X28" s="21" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X28" s="21"/>
       <c r="Y28" s="23"/>
       <c r="Z28" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA28" s="23"/>
+        <v>107</v>
+      </c>
+      <c r="AA28" s="23" t="s">
+        <v>108</v>
+      </c>
       <c r="AB28" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AC28" s="23"/>
     </row>
-    <row r="29" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="33" t="s">
+    <row r="29" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="33"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>46</v>
@@ -2695,7 +2747,7 @@
         <v>46</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>46</v>
@@ -2705,44 +2757,44 @@
         <v>46</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="3">
         <v>3.6</v>
       </c>
       <c r="P29" s="4"/>
-      <c r="Q29" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="R29" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="S29" s="44"/>
-      <c r="T29" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="U29" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="V29" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="44" t="s">
+      <c r="Q29" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="R29" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="S29" s="27"/>
+      <c r="T29" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U29" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC29" s="45"/>
-    </row>
-    <row r="30" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="32" t="s">
+      <c r="V29" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC29" s="28"/>
+    </row>
+    <row r="30" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="14"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2756,31 +2808,31 @@
       <c r="N30" s="2"/>
       <c r="O30" s="3"/>
       <c r="P30" s="4"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="48"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="31"/>
       <c r="W30" s="4"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="49"/>
-      <c r="AA30" s="48"/>
-      <c r="AB30" s="49"/>
-      <c r="AC30" s="48"/>
-    </row>
-    <row r="31" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="33" t="s">
+      <c r="X30" s="32"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="31"/>
+    </row>
+    <row r="31" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="33"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>46</v>
@@ -2799,24 +2851,24 @@
       <c r="N31" s="2"/>
       <c r="O31" s="3"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="53"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="53"/>
-    </row>
-    <row r="32" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="33" t="s">
+      <c r="Q31" s="35"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="36"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="36"/>
+    </row>
+    <row r="32" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="33"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="2" t="s">
         <v>50</v>
       </c>
@@ -2837,35 +2889,35 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="48"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="49"/>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="49"/>
-      <c r="AC32" s="48"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
+      <c r="Q32" s="32"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="31"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="32"/>
+      <c r="AC32" s="31"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="33"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3">
-        <v>1.9</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="3"/>
       <c r="H33" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,46 +2931,46 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="R33" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="S33" s="46"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="47"/>
-      <c r="X33" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y33" s="47"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="47"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="47"/>
-    </row>
-    <row r="34" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="33" t="s">
+      <c r="Q33" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="R33" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="S33" s="29"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="30"/>
+      <c r="X33" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="30"/>
+    </row>
+    <row r="34" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="33"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="3">
-        <v>1.9</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="3"/>
       <c r="H34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>46</v>
@@ -2928,46 +2980,48 @@
         <v>46</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>46</v>
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="R34" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="S34" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="T34" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="U34" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="V34" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="X34" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="44"/>
-      <c r="AA34" s="45"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="45"/>
-    </row>
-    <row r="35" spans="1:29" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="32" t="s">
+      <c r="Q34" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="R34" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="S34" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="T34" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U34" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="V34" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="X34" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y34" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="28"/>
+    </row>
+    <row r="35" spans="1:29" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="14"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -2981,30 +3035,30 @@
       <c r="N35" s="9"/>
       <c r="O35" s="15"/>
       <c r="P35" s="18"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="50"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="49"/>
-      <c r="AC35" s="50"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+      <c r="Q35" s="32"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="33"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="32"/>
+      <c r="AC35" s="33"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="33"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="2"/>
       <c r="D36" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>46</v>
@@ -3023,28 +3077,28 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
       <c r="P36" s="4"/>
-      <c r="Q36" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="R36" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="S36" s="46"/>
-      <c r="T36" s="47"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="47"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="47"/>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="47"/>
-      <c r="AB36" s="46"/>
-      <c r="AC36" s="47"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
+      <c r="Q36" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="R36" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="S36" s="29"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="30"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="30"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="33"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="2"/>
       <c r="D37" s="1" t="s">
         <v>46</v>
@@ -3068,10 +3122,10 @@
       <c r="O37" s="3"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R37" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="S37" s="21"/>
       <c r="T37" s="23"/>
@@ -3084,22 +3138,22 @@
       <c r="AB37" s="21"/>
       <c r="AC37" s="23"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="33"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="3">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="3"/>
       <c r="H38" s="1" t="s">
         <v>49</v>
       </c>
@@ -3114,40 +3168,42 @@
       <c r="O38" s="3"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R38" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S38" s="21"/>
       <c r="T38" s="23"/>
       <c r="U38" s="21"/>
       <c r="V38" s="23"/>
       <c r="X38" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y38" s="23"/>
+        <v>111</v>
+      </c>
+      <c r="Y38" s="23" t="s">
+        <v>110</v>
+      </c>
       <c r="Z38" s="21"/>
       <c r="AA38" s="23"/>
       <c r="AB38" s="21"/>
       <c r="AC38" s="23"/>
     </row>
-    <row r="39" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="33" t="s">
+    <row r="39" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="33"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="2"/>
       <c r="D39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="3">
-        <v>1.1100000000000001</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="3"/>
       <c r="H39" s="1" t="s">
         <v>49</v>
       </c>
@@ -3158,44 +3214,48 @@
         <v>46</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="3">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="P39" s="4"/>
-      <c r="Q39" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="R39" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="S39" s="44"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="V39" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="X39" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="44" t="s">
+      <c r="Q39" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="R39" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="S39" s="27"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC39" s="45"/>
-    </row>
-    <row r="40" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="32" t="s">
+      <c r="V39" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="X39" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y39" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC39" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="14"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -3209,30 +3269,30 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
       <c r="P40" s="4"/>
-      <c r="Q40" s="49"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="49"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="49"/>
-      <c r="V40" s="48"/>
-      <c r="X40" s="49"/>
-      <c r="Y40" s="48"/>
-      <c r="Z40" s="49"/>
-      <c r="AA40" s="48"/>
-      <c r="AB40" s="49"/>
-      <c r="AC40" s="48"/>
-    </row>
-    <row r="41" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="33" t="s">
+      <c r="Q40" s="32"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="31"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="31"/>
+    </row>
+    <row r="41" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="33"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="2"/>
       <c r="D41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>46</v>
@@ -3251,28 +3311,28 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="R41" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="S41" s="52"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="53"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="53"/>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="53"/>
-      <c r="AB41" s="52"/>
-      <c r="AC41" s="53"/>
-    </row>
-    <row r="42" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="33" t="s">
+      <c r="Q41" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="R41" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="S41" s="35"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="36"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="36"/>
+    </row>
+    <row r="42" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="33"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="2" t="s">
         <v>50</v>
       </c>
@@ -3295,28 +3355,28 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
       <c r="P42" s="4"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="49"/>
-      <c r="V42" s="48"/>
-      <c r="X42" s="49"/>
-      <c r="Y42" s="48"/>
-      <c r="Z42" s="49"/>
-      <c r="AA42" s="48"/>
-      <c r="AB42" s="49"/>
-      <c r="AC42" s="48"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A43" s="33" t="s">
+      <c r="Q42" s="32"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="31"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="31"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="31"/>
+      <c r="AB42" s="32"/>
+      <c r="AC42" s="31"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="33"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>46</v>
@@ -3335,34 +3395,34 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
       <c r="P43" s="4"/>
-      <c r="Q43" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="R43" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="S43" s="46"/>
-      <c r="T43" s="47"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="47"/>
-      <c r="X43" s="46"/>
-      <c r="Y43" s="47"/>
-      <c r="Z43" s="46"/>
-      <c r="AA43" s="47"/>
-      <c r="AB43" s="46"/>
-      <c r="AC43" s="47"/>
-    </row>
-    <row r="44" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="33" t="s">
+      <c r="Q43" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="R43" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="S43" s="29"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="30"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="30"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="30"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="30"/>
+    </row>
+    <row r="44" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="33"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="2"/>
       <c r="D44" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>46</v>
@@ -3382,10 +3442,10 @@
       <c r="O44" s="7"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R44" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="S44" s="22"/>
       <c r="T44" s="24"/>
@@ -3398,25 +3458,63 @@
       <c r="AB44" s="22"/>
       <c r="AC44" s="24"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D45" s="13"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="X46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Y46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="X47" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="X2:AC2"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
@@ -3433,44 +3531,6 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3485,11 +3545,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Control.xlsx
+++ b/Control.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatiux\Desktop\Fractum2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Galrich\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8232"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="125">
   <si>
     <t>Caso de uso</t>
   </si>
@@ -375,18 +375,9 @@
     <t>Sergio</t>
   </si>
   <si>
-    <t>Nota: desactivar JS (dni)</t>
-  </si>
-  <si>
-    <t>Alejandro:</t>
-  </si>
-  <si>
     <t>En este documento se anotan las variables de sesión que se usan (no se puede repetir ninguna)</t>
   </si>
   <si>
-    <t>anotar las variables de sesión en la hoja y acabar con JavaScript</t>
-  </si>
-  <si>
     <t>View/usuarios/buscarJefe.php</t>
   </si>
   <si>
@@ -394,6 +385,21 @@
   </si>
   <si>
     <t>View/usuarios/buscarExterno.php</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Iteracion 3 - Fecha límite de entrega: 2 de septiembre antes de las 20:00</t>
+  </si>
+  <si>
+    <t>Marco Y Héctor: revisión general y puesta a punto del sistema online</t>
+  </si>
+  <si>
+    <t>Alejandro: investigar multi-idioma</t>
+  </si>
+  <si>
+    <t>Diego: prueba de funcionalidades</t>
   </si>
 </sst>
 </file>
@@ -801,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -885,9 +891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -903,6 +907,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -922,27 +941,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1223,58 +1226,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF47"/>
+  <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R8" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+    <sheetView tabSelected="1" topLeftCell="U22" workbookViewId="0">
+      <selection activeCell="AH49" sqref="AH49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="41" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="20" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="20" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="20" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" style="20" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" style="20" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+    <row r="1" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="Q2" s="38" t="s">
         <v>103</v>
       </c>
@@ -1291,29 +1294,37 @@
       <c r="AA2" s="39"/>
       <c r="AB2" s="39"/>
       <c r="AC2" s="40"/>
-    </row>
-    <row r="3" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44" t="s">
+      <c r="AE2" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="40"/>
+    </row>
+    <row r="3" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47" t="s">
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="53" t="s">
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="55"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="46"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="41" t="s">
         <v>2</v>
@@ -1339,11 +1350,23 @@
         <v>4</v>
       </c>
       <c r="AC3" s="42"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+      <c r="AE3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="42"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="14" t="s">
         <v>65</v>
       </c>
@@ -1417,13 +1440,30 @@
       <c r="AC4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AF4" s="37"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="AE4" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG4" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI4" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ4" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="50"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
         <v>46</v>
@@ -1476,12 +1516,18 @@
       <c r="AA5" s="23"/>
       <c r="AB5" s="21"/>
       <c r="AC5" s="23"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="23"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
         <v>46</v>
@@ -1547,13 +1593,25 @@
       <c r="AB6" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="AC6" s="23"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="AC6" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE6" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ6" s="23"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
         <v>46</v>
@@ -1594,12 +1652,18 @@
       <c r="AA7" s="23"/>
       <c r="AB7" s="21"/>
       <c r="AC7" s="23"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="23"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A8" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
         <v>46</v>
@@ -1644,12 +1708,18 @@
       <c r="AA8" s="23"/>
       <c r="AB8" s="21"/>
       <c r="AC8" s="23"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="23"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A9" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1" t="s">
         <v>46</v>
@@ -1694,12 +1764,18 @@
       <c r="AA9" s="23"/>
       <c r="AB9" s="21"/>
       <c r="AC9" s="23"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="23"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="23"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
         <v>46</v>
@@ -1748,12 +1824,18 @@
       <c r="AA10" s="23"/>
       <c r="AB10" s="21"/>
       <c r="AC10" s="23"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="23"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A11" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
         <v>46</v>
@@ -1819,13 +1901,25 @@
       <c r="AB11" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="AC11" s="23"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="AC11" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE11" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ11" s="23"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A12" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
         <v>46</v>
@@ -1886,12 +1980,18 @@
       </c>
       <c r="AB12" s="21"/>
       <c r="AC12" s="23"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="23"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A13" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
         <v>46</v>
@@ -1950,12 +2050,18 @@
       <c r="AA13" s="23"/>
       <c r="AB13" s="21"/>
       <c r="AC13" s="23"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="23"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
         <v>46</v>
@@ -2000,18 +2106,26 @@
       <c r="AA14" s="23"/>
       <c r="AB14" s="21"/>
       <c r="AC14" s="23"/>
-    </row>
-    <row r="15" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="s">
+      <c r="AE14" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="23"/>
+    </row>
+    <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3">
@@ -2021,7 +2135,7 @@
         <v>46</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="3">
@@ -2031,7 +2145,7 @@
         <v>46</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="3">
@@ -2062,7 +2176,7 @@
       <c r="Y15" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="Z15" s="56" t="s">
+      <c r="Z15" s="37" t="s">
         <v>109</v>
       </c>
       <c r="AA15" s="28" t="s">
@@ -2074,13 +2188,25 @@
       <c r="AC15" s="28" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+      <c r="AE15" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ15" s="28"/>
+    </row>
+    <row r="16" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="14"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -2106,12 +2232,18 @@
       <c r="AA16" s="31"/>
       <c r="AB16" s="32"/>
       <c r="AC16" s="31"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="31"/>
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="31"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A17" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="51"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
         <v>46</v>
@@ -2152,10 +2284,16 @@
       <c r="AA17" s="30"/>
       <c r="AB17" s="29"/>
       <c r="AC17" s="30"/>
-    </row>
-    <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="30"/>
+    </row>
+    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
         <v>46</v>
@@ -2196,12 +2334,18 @@
       <c r="AA18" s="28"/>
       <c r="AB18" s="27"/>
       <c r="AC18" s="28"/>
-    </row>
-    <row r="19" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="28"/>
+    </row>
+    <row r="19" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
@@ -2234,12 +2378,18 @@
       <c r="AA19" s="31"/>
       <c r="AB19" s="32"/>
       <c r="AC19" s="31"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="31"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="31"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A20" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
         <v>46</v>
@@ -2294,12 +2444,18 @@
       <c r="AA20" s="30"/>
       <c r="AB20" s="29"/>
       <c r="AC20" s="30"/>
-    </row>
-    <row r="21" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="30"/>
+    </row>
+    <row r="21" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="43"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
         <v>46</v>
@@ -2354,13 +2510,19 @@
       <c r="AA21" s="28"/>
       <c r="AB21" s="27"/>
       <c r="AC21" s="28"/>
-    </row>
-    <row r="22" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="50" t="s">
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="28"/>
+    </row>
+    <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="14"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2386,12 +2548,18 @@
       <c r="AA22" s="31"/>
       <c r="AB22" s="32"/>
       <c r="AC22" s="31"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="31"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A23" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="43"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
         <v>46</v>
@@ -2446,12 +2614,20 @@
       </c>
       <c r="AB23" s="29"/>
       <c r="AC23" s="30"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="AE23" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="30"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="43"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
         <v>46</v>
@@ -2495,7 +2671,9 @@
       <c r="X24" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="Y24" s="23"/>
+      <c r="Y24" s="23" t="s">
+        <v>108</v>
+      </c>
       <c r="Z24" s="21" t="s">
         <v>107</v>
       </c>
@@ -2504,12 +2682,22 @@
       </c>
       <c r="AB24" s="21"/>
       <c r="AC24" s="23"/>
-    </row>
-    <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43" t="s">
+      <c r="AE24" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH24" s="23"/>
+      <c r="AI24" s="21"/>
+      <c r="AJ24" s="23"/>
+    </row>
+    <row r="25" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="43"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
         <v>46</v>
@@ -2571,14 +2759,24 @@
       <c r="AB25" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="AC25" s="28"/>
-    </row>
-    <row r="26" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="50" t="s">
+      <c r="AC25" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ25" s="28"/>
+    </row>
+    <row r="26" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="14"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2604,12 +2802,18 @@
       <c r="AA26" s="31"/>
       <c r="AB26" s="32"/>
       <c r="AC26" s="31"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="31"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="31"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A27" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="43"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1" t="s">
         <v>49</v>
@@ -2661,13 +2865,25 @@
       <c r="AB27" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AC27" s="30"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="AC27" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ27" s="30"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A28" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="43"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1" t="s">
         <v>49</v>
@@ -2725,13 +2941,25 @@
       <c r="AB28" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="AC28" s="23"/>
-    </row>
-    <row r="29" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
+      <c r="AC28" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ28" s="23"/>
+    </row>
+    <row r="29" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="43"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>46</v>
@@ -2787,14 +3015,24 @@
       <c r="AB29" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="AC29" s="28"/>
-    </row>
-    <row r="30" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="50" t="s">
+      <c r="AC29" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ29" s="28"/>
+    </row>
+    <row r="30" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="14"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2821,12 +3059,18 @@
       <c r="AA30" s="31"/>
       <c r="AB30" s="32"/>
       <c r="AC30" s="31"/>
-    </row>
-    <row r="31" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43" t="s">
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="31"/>
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="31"/>
+    </row>
+    <row r="31" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="43"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1" t="s">
         <v>46</v>
@@ -2863,12 +3107,18 @@
       <c r="AA31" s="36"/>
       <c r="AB31" s="35"/>
       <c r="AC31" s="36"/>
-    </row>
-    <row r="32" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="35"/>
+      <c r="AH31" s="36"/>
+      <c r="AI31" s="35"/>
+      <c r="AJ31" s="36"/>
+    </row>
+    <row r="32" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="43"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="2" t="s">
         <v>50</v>
       </c>
@@ -2901,12 +3151,18 @@
       <c r="AA32" s="31"/>
       <c r="AB32" s="32"/>
       <c r="AC32" s="31"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="AE32" s="32"/>
+      <c r="AF32" s="31"/>
+      <c r="AG32" s="32"/>
+      <c r="AH32" s="31"/>
+      <c r="AI32" s="32"/>
+      <c r="AJ32" s="31"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A33" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="43"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
         <v>46</v>
@@ -2944,17 +3200,25 @@
       <c r="X33" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="Y33" s="30"/>
+      <c r="Y33" s="30" t="s">
+        <v>110</v>
+      </c>
       <c r="Z33" s="29"/>
       <c r="AA33" s="30"/>
       <c r="AB33" s="29"/>
       <c r="AC33" s="30"/>
-    </row>
-    <row r="34" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="30"/>
+      <c r="AI33" s="29"/>
+      <c r="AJ33" s="30"/>
+    </row>
+    <row r="34" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="43"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
         <v>46</v>
@@ -3015,13 +3279,19 @@
       <c r="AA34" s="28"/>
       <c r="AB34" s="27"/>
       <c r="AC34" s="28"/>
-    </row>
-    <row r="35" spans="1:29" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="50" t="s">
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="28"/>
+      <c r="AI34" s="27"/>
+      <c r="AJ34" s="28"/>
+    </row>
+    <row r="35" spans="1:36" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="14"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -3047,12 +3317,18 @@
       <c r="AA35" s="33"/>
       <c r="AB35" s="32"/>
       <c r="AC35" s="33"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="AE35" s="32"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="34"/>
+      <c r="AH35" s="33"/>
+      <c r="AI35" s="32"/>
+      <c r="AJ35" s="33"/>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A36" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="43"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="2"/>
       <c r="D36" s="1" t="s">
         <v>46</v>
@@ -3093,12 +3369,18 @@
       <c r="AA36" s="30"/>
       <c r="AB36" s="29"/>
       <c r="AC36" s="30"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="30"/>
+      <c r="AG36" s="29"/>
+      <c r="AH36" s="30"/>
+      <c r="AI36" s="29"/>
+      <c r="AJ36" s="30"/>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A37" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="43"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="2"/>
       <c r="D37" s="1" t="s">
         <v>46</v>
@@ -3137,12 +3419,18 @@
       <c r="AA37" s="23"/>
       <c r="AB37" s="21"/>
       <c r="AC37" s="23"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+      <c r="AE37" s="21"/>
+      <c r="AF37" s="23"/>
+      <c r="AG37" s="21"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="21"/>
+      <c r="AJ37" s="23"/>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A38" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="43"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1" t="s">
         <v>46</v>
@@ -3187,12 +3475,18 @@
       <c r="AA38" s="23"/>
       <c r="AB38" s="21"/>
       <c r="AC38" s="23"/>
-    </row>
-    <row r="39" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
+      <c r="AE38" s="21"/>
+      <c r="AF38" s="23"/>
+      <c r="AG38" s="21"/>
+      <c r="AH38" s="23"/>
+      <c r="AI38" s="21"/>
+      <c r="AJ38" s="23"/>
+    </row>
+    <row r="39" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="43"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="2"/>
       <c r="D39" s="1" t="s">
         <v>46</v>
@@ -3249,13 +3543,21 @@
       <c r="AC39" s="28" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="50" t="s">
+      <c r="AE39" s="27"/>
+      <c r="AF39" s="28"/>
+      <c r="AG39" s="27"/>
+      <c r="AH39" s="28"/>
+      <c r="AI39" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ39" s="28"/>
+    </row>
+    <row r="40" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="14"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -3281,12 +3583,18 @@
       <c r="AA40" s="31"/>
       <c r="AB40" s="32"/>
       <c r="AC40" s="31"/>
-    </row>
-    <row r="41" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="43" t="s">
+      <c r="AE40" s="32"/>
+      <c r="AF40" s="31"/>
+      <c r="AG40" s="32"/>
+      <c r="AH40" s="31"/>
+      <c r="AI40" s="32"/>
+      <c r="AJ40" s="31"/>
+    </row>
+    <row r="41" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="43"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="2"/>
       <c r="D41" s="1" t="s">
         <v>46</v>
@@ -3327,12 +3635,18 @@
       <c r="AA41" s="36"/>
       <c r="AB41" s="35"/>
       <c r="AC41" s="36"/>
-    </row>
-    <row r="42" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="43" t="s">
+      <c r="AE41" s="35"/>
+      <c r="AF41" s="36"/>
+      <c r="AG41" s="35"/>
+      <c r="AH41" s="36"/>
+      <c r="AI41" s="35"/>
+      <c r="AJ41" s="36"/>
+    </row>
+    <row r="42" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="43"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="2" t="s">
         <v>50</v>
       </c>
@@ -3367,12 +3681,18 @@
       <c r="AA42" s="31"/>
       <c r="AB42" s="32"/>
       <c r="AC42" s="31"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
+      <c r="AE42" s="32"/>
+      <c r="AF42" s="31"/>
+      <c r="AG42" s="32"/>
+      <c r="AH42" s="31"/>
+      <c r="AI42" s="32"/>
+      <c r="AJ42" s="31"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A43" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="43"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2" t="s">
@@ -3411,12 +3731,18 @@
       <c r="AA43" s="30"/>
       <c r="AB43" s="29"/>
       <c r="AC43" s="30"/>
-    </row>
-    <row r="44" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="43" t="s">
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="30"/>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="30"/>
+      <c r="AI43" s="29"/>
+      <c r="AJ43" s="30"/>
+    </row>
+    <row r="44" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="43"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="2"/>
       <c r="D44" s="5" t="s">
         <v>46</v>
@@ -3457,64 +3783,38 @@
       <c r="AA44" s="24"/>
       <c r="AB44" s="22"/>
       <c r="AC44" s="24"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE44" s="22"/>
+      <c r="AF44" s="24"/>
+      <c r="AG44" s="22"/>
+      <c r="AH44" s="24"/>
+      <c r="AI44" s="22"/>
+      <c r="AJ44" s="24"/>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="D45" s="13"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="X46" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="X47" t="s">
-        <v>116</v>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AE46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AE47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AE48" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A29:B29"/>
+  <mergeCells count="58">
+    <mergeCell ref="AE2:AJ2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
     <mergeCell ref="X2:AC2"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
@@ -3531,6 +3831,44 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3545,11 +3883,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Control.xlsx
+++ b/Control.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Galrich\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatiux\Desktop\Fractum2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8232"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="124">
   <si>
     <t>Caso de uso</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>View/incidencias/listarJefe.php</t>
-  </si>
-  <si>
-    <t>1.2,1.3</t>
   </si>
   <si>
     <t>View/incidencias/consultarJefe.php</t>
@@ -907,6 +904,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -918,33 +942,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1228,58 +1225,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U22" workbookViewId="0">
-      <selection activeCell="AH49" sqref="AH49"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="41" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" style="20" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" style="20" customWidth="1"/>
-    <col min="24" max="24" width="15.6640625" customWidth="1"/>
-    <col min="26" max="26" width="15.6640625" customWidth="1"/>
-    <col min="28" max="28" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="20" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="20" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="20" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+    <row r="1" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
       <c r="Q2" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R2" s="39"/>
       <c r="S2" s="39"/>
@@ -1287,7 +1284,7 @@
       <c r="U2" s="39"/>
       <c r="V2" s="40"/>
       <c r="X2" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y2" s="39"/>
       <c r="Z2" s="39"/>
@@ -1295,7 +1292,7 @@
       <c r="AB2" s="39"/>
       <c r="AC2" s="40"/>
       <c r="AE2" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF2" s="39"/>
       <c r="AG2" s="39"/>
@@ -1303,35 +1300,35 @@
       <c r="AI2" s="39"/>
       <c r="AJ2" s="40"/>
     </row>
-    <row r="3" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49" t="s">
+    <row r="3" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52" t="s">
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="44" t="s">
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="55"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="41" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="42"/>
       <c r="S3" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T3" s="42"/>
       <c r="U3" s="41" t="s">
@@ -1343,7 +1340,7 @@
       </c>
       <c r="Y3" s="42"/>
       <c r="Z3" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA3" s="42"/>
       <c r="AB3" s="41" t="s">
@@ -1355,7 +1352,7 @@
       </c>
       <c r="AF3" s="42"/>
       <c r="AG3" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AH3" s="42"/>
       <c r="AI3" s="41" t="s">
@@ -1363,12 +1360,12 @@
       </c>
       <c r="AJ3" s="42"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>5</v>
@@ -1377,10 +1374,10 @@
         <v>52</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>5</v>
@@ -1389,10 +1386,10 @@
         <v>52</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>5</v>
@@ -1401,69 +1398,69 @@
         <v>52</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R4" s="23" t="s">
         <v>52</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T4" s="23" t="s">
         <v>52</v>
       </c>
       <c r="U4" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V4" s="23" t="s">
         <v>52</v>
       </c>
       <c r="X4" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y4" s="23" t="s">
         <v>52</v>
       </c>
       <c r="Z4" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA4" s="23" t="s">
         <v>52</v>
       </c>
       <c r="AB4" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC4" s="23" t="s">
         <v>52</v>
       </c>
       <c r="AE4" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF4" s="23" t="s">
         <v>52</v>
       </c>
       <c r="AG4" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH4" s="23" t="s">
         <v>52</v>
       </c>
       <c r="AI4" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ4" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
         <v>46</v>
@@ -1497,18 +1494,18 @@
       <c r="O5" s="3"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S5" s="21"/>
       <c r="T5" s="23"/>
       <c r="U5" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V5" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X5" s="21"/>
       <c r="Y5" s="23"/>
@@ -1523,11 +1520,11 @@
       <c r="AI5" s="21"/>
       <c r="AJ5" s="23"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
         <v>46</v>
@@ -1535,15 +1532,15 @@
       <c r="E6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="F6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>46</v>
@@ -1553,7 +1550,7 @@
         <v>46</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="3">
@@ -1561,57 +1558,59 @@
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="T6" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="U6" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="R6" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="S6" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="T6" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="U6" s="21" t="s">
-        <v>112</v>
-      </c>
       <c r="V6" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X6" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y6" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z6" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA6" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB6" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="AA6" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB6" s="21" t="s">
-        <v>115</v>
-      </c>
       <c r="AC6" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE6" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF6" s="23"/>
+        <v>110</v>
+      </c>
+      <c r="AF6" s="23" t="s">
+        <v>109</v>
+      </c>
       <c r="AG6" s="21"/>
       <c r="AH6" s="23"/>
       <c r="AI6" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ6" s="23"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="47" t="s">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
         <v>46</v>
@@ -1637,10 +1636,10 @@
       <c r="O7" s="3"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S7" s="21"/>
       <c r="T7" s="23"/>
@@ -1659,11 +1658,11 @@
       <c r="AI7" s="21"/>
       <c r="AJ7" s="23"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
         <v>46</v>
@@ -1689,20 +1688,20 @@
       <c r="O8" s="3"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S8" s="21"/>
       <c r="T8" s="23"/>
       <c r="U8" s="21"/>
       <c r="V8" s="23"/>
       <c r="X8" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y8" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z8" s="21"/>
       <c r="AA8" s="23"/>
@@ -1715,11 +1714,11 @@
       <c r="AI8" s="21"/>
       <c r="AJ8" s="23"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1" t="s">
         <v>46</v>
@@ -1745,20 +1744,20 @@
       <c r="O9" s="3"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S9" s="21"/>
       <c r="T9" s="23"/>
       <c r="U9" s="21"/>
       <c r="V9" s="23"/>
       <c r="X9" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y9" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z9" s="21"/>
       <c r="AA9" s="23"/>
@@ -1771,11 +1770,11 @@
       <c r="AI9" s="21"/>
       <c r="AJ9" s="23"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
         <v>46</v>
@@ -1797,7 +1796,7 @@
         <v>46</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>46</v>
@@ -1805,18 +1804,18 @@
       <c r="O10" s="3"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="23"/>
       <c r="U10" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V10" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X10" s="21"/>
       <c r="Y10" s="23"/>
@@ -1831,11 +1830,11 @@
       <c r="AI10" s="21"/>
       <c r="AJ10" s="23"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
         <v>46</v>
@@ -1843,15 +1842,15 @@
       <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="F11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>46</v>
@@ -1861,65 +1860,67 @@
         <v>46</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="T11" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="U11" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="R11" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="S11" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="T11" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="U11" s="21" t="s">
-        <v>112</v>
-      </c>
       <c r="V11" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X11" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y11" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z11" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA11" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB11" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AC11" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE11" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF11" s="23"/>
+        <v>110</v>
+      </c>
+      <c r="AF11" s="23" t="s">
+        <v>109</v>
+      </c>
       <c r="AG11" s="21"/>
       <c r="AH11" s="23"/>
       <c r="AI11" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ11" s="23"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
         <v>46</v>
@@ -1935,7 +1936,7 @@
         <v>46</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>46</v>
@@ -1945,7 +1946,7 @@
         <v>46</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>46</v>
@@ -1953,30 +1954,30 @@
       <c r="O12" s="3"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="R12" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="T12" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="U12" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="R12" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="S12" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="T12" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="U12" s="21" t="s">
-        <v>112</v>
-      </c>
       <c r="V12" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X12" s="21"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA12" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB12" s="21"/>
       <c r="AC12" s="23"/>
@@ -1987,17 +1988,17 @@
       <c r="AI12" s="21"/>
       <c r="AJ12" s="23"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>46</v>
@@ -2007,7 +2008,7 @@
         <v>46</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>46</v>
@@ -2017,7 +2018,7 @@
         <v>46</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>46</v>
@@ -2025,26 +2026,26 @@
       <c r="O13" s="3"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S13" s="21"/>
       <c r="T13" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V13" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X13" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y13" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z13" s="21"/>
       <c r="AA13" s="23"/>
@@ -2057,21 +2058,21 @@
       <c r="AI13" s="21"/>
       <c r="AJ13" s="23"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="3" t="s">
-        <v>57</v>
+      <c r="G14" s="3">
+        <v>1.1000000000000001</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>49</v>
@@ -2087,45 +2088,47 @@
       <c r="O14" s="3"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R14" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S14" s="21"/>
       <c r="T14" s="23"/>
       <c r="U14" s="21"/>
       <c r="V14" s="23"/>
       <c r="X14" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y14" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z14" s="21"/>
       <c r="AA14" s="23"/>
       <c r="AB14" s="21"/>
       <c r="AC14" s="23"/>
       <c r="AE14" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF14" s="23"/>
+        <v>110</v>
+      </c>
+      <c r="AF14" s="23" t="s">
+        <v>107</v>
+      </c>
       <c r="AG14" s="21"/>
       <c r="AH14" s="23"/>
       <c r="AI14" s="21"/>
       <c r="AJ14" s="23"/>
     </row>
-    <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="47" t="s">
+    <row r="15" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3">
@@ -2135,7 +2138,7 @@
         <v>46</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="3">
@@ -2145,7 +2148,7 @@
         <v>46</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="3">
@@ -2153,60 +2156,60 @@
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R15" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="S15" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="S15" s="27" t="s">
-        <v>109</v>
-      </c>
       <c r="T15" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="U15" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="U15" s="27" t="s">
-        <v>109</v>
-      </c>
       <c r="V15" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="X15" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="X15" s="27" t="s">
-        <v>109</v>
-      </c>
       <c r="Y15" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z15" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="Z15" s="37" t="s">
-        <v>109</v>
-      </c>
       <c r="AA15" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB15" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="AB15" s="27" t="s">
-        <v>109</v>
-      </c>
       <c r="AC15" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE15" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="AE15" s="27" t="s">
-        <v>109</v>
       </c>
       <c r="AF15" s="28"/>
       <c r="AG15" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AH15" s="28"/>
       <c r="AI15" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AJ15" s="28"/>
     </row>
-    <row r="16" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="47" t="s">
+    <row r="16" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="14"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -2239,17 +2242,17 @@
       <c r="AI16" s="32"/>
       <c r="AJ16" s="31"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="55" t="s">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>46</v>
@@ -2269,10 +2272,10 @@
       <c r="O17" s="3"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R17" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S17" s="29"/>
       <c r="T17" s="30"/>
@@ -2291,15 +2294,15 @@
       <c r="AI17" s="29"/>
       <c r="AJ17" s="30"/>
     </row>
-    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
+    <row r="18" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>46</v>
@@ -2319,10 +2322,10 @@
       <c r="O18" s="3"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R18" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S18" s="27"/>
       <c r="T18" s="28"/>
@@ -2341,11 +2344,11 @@
       <c r="AI18" s="27"/>
       <c r="AJ18" s="28"/>
     </row>
-    <row r="19" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="48" t="s">
+    <row r="19" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="48"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
@@ -2385,17 +2388,17 @@
       <c r="AI19" s="32"/>
       <c r="AJ19" s="31"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="48"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>46</v>
@@ -2405,7 +2408,7 @@
         <v>46</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>46</v>
@@ -2415,7 +2418,7 @@
         <v>46</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>46</v>
@@ -2423,20 +2426,20 @@
       <c r="O20" s="3"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R20" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S20" s="29"/>
       <c r="T20" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U20" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V20" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X20" s="29"/>
       <c r="Y20" s="30"/>
@@ -2451,17 +2454,17 @@
       <c r="AI20" s="29"/>
       <c r="AJ20" s="30"/>
     </row>
-    <row r="21" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="48" t="s">
+    <row r="21" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="48"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>46</v>
@@ -2471,7 +2474,7 @@
         <v>46</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>46</v>
@@ -2481,7 +2484,7 @@
         <v>46</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>46</v>
@@ -2489,20 +2492,20 @@
       <c r="O21" s="3"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R21" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S21" s="27"/>
       <c r="T21" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U21" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V21" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X21" s="27"/>
       <c r="Y21" s="28"/>
@@ -2517,12 +2520,12 @@
       <c r="AI21" s="27"/>
       <c r="AJ21" s="28"/>
     </row>
-    <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="47" t="s">
+    <row r="22" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="14"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2555,27 +2558,27 @@
       <c r="AI22" s="32"/>
       <c r="AJ22" s="31"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="48"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3">
-        <v>1.3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="3"/>
       <c r="H23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>46</v>
@@ -2589,61 +2592,63 @@
       <c r="O23" s="3"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R23" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S23" s="29"/>
       <c r="T23" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U23" s="29"/>
       <c r="V23" s="30"/>
       <c r="X23" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y23" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z23" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA23" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB23" s="29"/>
       <c r="AC23" s="30"/>
       <c r="AE23" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF23" s="30"/>
+        <v>110</v>
+      </c>
+      <c r="AF23" s="30" t="s">
+        <v>109</v>
+      </c>
       <c r="AG23" s="29"/>
       <c r="AH23" s="30"/>
       <c r="AI23" s="29"/>
       <c r="AJ23" s="30"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A24" s="48" t="s">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="48"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="19" t="s">
-        <v>57</v>
+      <c r="G24" s="19">
+        <v>1.1000000000000001</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="19">
@@ -2657,53 +2662,55 @@
       <c r="O24" s="19"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R24" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S24" s="21"/>
       <c r="T24" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U24" s="21"/>
       <c r="V24" s="23"/>
       <c r="X24" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y24" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z24" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA24" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB24" s="21"/>
       <c r="AC24" s="23"/>
       <c r="AE24" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF24" s="23"/>
+        <v>110</v>
+      </c>
+      <c r="AF24" s="23" t="s">
+        <v>107</v>
+      </c>
       <c r="AG24" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AH24" s="23"/>
       <c r="AI24" s="21"/>
       <c r="AJ24" s="23"/>
     </row>
-    <row r="25" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="48" t="s">
+    <row r="25" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="48"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>46</v>
@@ -2713,7 +2720,7 @@
         <v>46</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>46</v>
@@ -2723,7 +2730,7 @@
         <v>46</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="3">
@@ -2731,52 +2738,52 @@
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="R25" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="S25" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="T25" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="U25" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="R25" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="S25" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="T25" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="U25" s="27" t="s">
-        <v>112</v>
-      </c>
       <c r="V25" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X25" s="27"/>
       <c r="Y25" s="28"/>
       <c r="Z25" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA25" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB25" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AC25" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE25" s="27"/>
       <c r="AF25" s="28"/>
       <c r="AG25" s="27"/>
       <c r="AH25" s="28"/>
       <c r="AI25" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ25" s="28"/>
     </row>
-    <row r="26" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="47" t="s">
+    <row r="26" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="14"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2809,11 +2816,11 @@
       <c r="AI26" s="32"/>
       <c r="AJ26" s="31"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="48"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1" t="s">
         <v>49</v>
@@ -2825,7 +2832,7 @@
         <v>46</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="3">
@@ -2835,7 +2842,7 @@
         <v>46</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="3">
@@ -2846,50 +2853,50 @@
       <c r="R27" s="30"/>
       <c r="S27" s="29"/>
       <c r="T27" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U27" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V27" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X27" s="29"/>
       <c r="Y27" s="30"/>
       <c r="Z27" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA27" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB27" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="AB27" s="29" t="s">
-        <v>109</v>
-      </c>
       <c r="AC27" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE27" s="29"/>
       <c r="AF27" s="30"/>
       <c r="AG27" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AH27" s="30"/>
       <c r="AI27" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ27" s="30"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A28" s="48" t="s">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="48"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
@@ -2897,7 +2904,7 @@
         <v>46</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="19">
@@ -2907,7 +2914,7 @@
         <v>46</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="3">
@@ -2915,57 +2922,57 @@
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R28" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S28" s="21"/>
       <c r="T28" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U28" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V28" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X28" s="21"/>
       <c r="Y28" s="23"/>
       <c r="Z28" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA28" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB28" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="AB28" s="21" t="s">
-        <v>109</v>
-      </c>
       <c r="AC28" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE28" s="21"/>
       <c r="AF28" s="23"/>
       <c r="AG28" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AH28" s="23"/>
       <c r="AI28" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ28" s="23"/>
     </row>
-    <row r="29" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="48" t="s">
+    <row r="29" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="48"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>46</v>
@@ -2975,7 +2982,7 @@
         <v>46</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>46</v>
@@ -2985,7 +2992,7 @@
         <v>46</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="3">
@@ -2993,46 +3000,46 @@
       </c>
       <c r="P29" s="4"/>
       <c r="Q29" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R29" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S29" s="27"/>
       <c r="T29" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U29" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V29" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X29" s="27"/>
       <c r="Y29" s="28"/>
       <c r="Z29" s="27"/>
       <c r="AA29" s="28"/>
       <c r="AB29" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC29" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE29" s="27"/>
       <c r="AF29" s="28"/>
       <c r="AG29" s="27"/>
       <c r="AH29" s="28"/>
       <c r="AI29" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ29" s="28"/>
     </row>
-    <row r="30" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="47" t="s">
+    <row r="30" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="14"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -3066,17 +3073,17 @@
       <c r="AI30" s="32"/>
       <c r="AJ30" s="31"/>
     </row>
-    <row r="31" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="48" t="s">
+    <row r="31" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="48"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>46</v>
@@ -3114,11 +3121,11 @@
       <c r="AI31" s="35"/>
       <c r="AJ31" s="36"/>
     </row>
-    <row r="32" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="48" t="s">
+    <row r="32" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="48"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="2" t="s">
         <v>50</v>
       </c>
@@ -3158,17 +3165,17 @@
       <c r="AI32" s="32"/>
       <c r="AJ32" s="31"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A33" s="48" t="s">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A33" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="48"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>46</v>
@@ -3188,20 +3195,20 @@
       <c r="O33" s="3"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R33" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S33" s="29"/>
       <c r="T33" s="30"/>
       <c r="U33" s="29"/>
       <c r="V33" s="30"/>
       <c r="X33" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y33" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z33" s="29"/>
       <c r="AA33" s="30"/>
@@ -3214,17 +3221,17 @@
       <c r="AI33" s="29"/>
       <c r="AJ33" s="30"/>
     </row>
-    <row r="34" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="48" t="s">
+    <row r="34" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="48"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>46</v>
@@ -3234,7 +3241,7 @@
         <v>46</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>46</v>
@@ -3244,7 +3251,7 @@
         <v>46</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>46</v>
@@ -3252,28 +3259,28 @@
       <c r="O34" s="3"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="R34" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="S34" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="T34" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="U34" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="R34" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="S34" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="T34" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="U34" s="27" t="s">
-        <v>112</v>
-      </c>
       <c r="V34" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X34" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y34" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z34" s="27"/>
       <c r="AA34" s="28"/>
@@ -3286,12 +3293,12 @@
       <c r="AI34" s="27"/>
       <c r="AJ34" s="28"/>
     </row>
-    <row r="35" spans="1:36" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="47" t="s">
+    <row r="35" spans="1:36" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="14"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -3324,17 +3331,17 @@
       <c r="AI35" s="32"/>
       <c r="AJ35" s="33"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A36" s="48" t="s">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="48"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="2"/>
       <c r="D36" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>46</v>
@@ -3354,10 +3361,10 @@
       <c r="O36" s="3"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R36" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S36" s="29"/>
       <c r="T36" s="30"/>
@@ -3376,11 +3383,11 @@
       <c r="AI36" s="29"/>
       <c r="AJ36" s="30"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A37" s="48" t="s">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A37" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="48"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="2"/>
       <c r="D37" s="1" t="s">
         <v>46</v>
@@ -3404,10 +3411,10 @@
       <c r="O37" s="3"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R37" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S37" s="21"/>
       <c r="T37" s="23"/>
@@ -3426,17 +3433,17 @@
       <c r="AI37" s="21"/>
       <c r="AJ37" s="23"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A38" s="48" t="s">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A38" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="48"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>46</v>
@@ -3456,20 +3463,20 @@
       <c r="O38" s="3"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R38" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S38" s="21"/>
       <c r="T38" s="23"/>
       <c r="U38" s="21"/>
       <c r="V38" s="23"/>
       <c r="X38" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y38" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z38" s="21"/>
       <c r="AA38" s="23"/>
@@ -3482,17 +3489,17 @@
       <c r="AI38" s="21"/>
       <c r="AJ38" s="23"/>
     </row>
-    <row r="39" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="48" t="s">
+    <row r="39" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="48"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="2"/>
       <c r="D39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>46</v>
@@ -3508,7 +3515,7 @@
         <v>46</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="3">
@@ -3516,48 +3523,48 @@
       </c>
       <c r="P39" s="4"/>
       <c r="Q39" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R39" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S39" s="27"/>
       <c r="T39" s="28"/>
       <c r="U39" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V39" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X39" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y39" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z39" s="27"/>
       <c r="AA39" s="28"/>
       <c r="AB39" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC39" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE39" s="27"/>
       <c r="AF39" s="28"/>
       <c r="AG39" s="27"/>
       <c r="AH39" s="28"/>
       <c r="AI39" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ39" s="28"/>
     </row>
-    <row r="40" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="47" t="s">
+    <row r="40" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="14"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -3590,17 +3597,17 @@
       <c r="AI40" s="32"/>
       <c r="AJ40" s="31"/>
     </row>
-    <row r="41" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="48" t="s">
+    <row r="41" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="48"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="2"/>
       <c r="D41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>46</v>
@@ -3620,10 +3627,10 @@
       <c r="O41" s="3"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R41" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S41" s="35"/>
       <c r="T41" s="36"/>
@@ -3642,11 +3649,11 @@
       <c r="AI41" s="35"/>
       <c r="AJ41" s="36"/>
     </row>
-    <row r="42" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="48" t="s">
+    <row r="42" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="48"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="2" t="s">
         <v>50</v>
       </c>
@@ -3688,15 +3695,15 @@
       <c r="AI42" s="32"/>
       <c r="AJ42" s="31"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A43" s="48" t="s">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A43" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="48"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>46</v>
@@ -3716,10 +3723,10 @@
       <c r="O43" s="3"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R43" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S43" s="29"/>
       <c r="T43" s="30"/>
@@ -3738,17 +3745,17 @@
       <c r="AI43" s="29"/>
       <c r="AJ43" s="30"/>
     </row>
-    <row r="44" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="48" t="s">
+    <row r="44" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="48"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="2"/>
       <c r="D44" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>46</v>
@@ -3768,10 +3775,10 @@
       <c r="O44" s="7"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R44" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S44" s="22"/>
       <c r="T44" s="24"/>
@@ -3790,35 +3797,61 @@
       <c r="AI44" s="22"/>
       <c r="AJ44" s="24"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D45" s="13"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AE46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AE47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AE48" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="AE47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="AE48" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="AE2:AJ2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="X2:AC2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A3:C3"/>
@@ -3832,43 +3865,17 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="AE2:AJ2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="X2:AC2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3883,11 +3890,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Control.xlsx
+++ b/Control.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="124">
   <si>
     <t>Caso de uso</t>
   </si>
@@ -904,6 +904,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -925,23 +940,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="W3" workbookViewId="0">
+      <selection activeCell="AG26" sqref="AG26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,27 +1254,27 @@
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="Q2" s="38" t="s">
         <v>102</v>
       </c>
@@ -1301,27 +1301,27 @@
       <c r="AJ2" s="40"/>
     </row>
     <row r="3" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47" t="s">
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="53" t="s">
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="55"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="46"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="41" t="s">
         <v>2</v>
@@ -1361,9 +1361,9 @@
       <c r="AJ3" s="42"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="14" t="s">
         <v>64</v>
       </c>
@@ -1457,10 +1457,10 @@
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="50"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
         <v>46</v>
@@ -1521,10 +1521,10 @@
       <c r="AJ5" s="23"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
         <v>46</v>
@@ -1607,10 +1607,10 @@
       <c r="AJ6" s="23"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
         <v>46</v>
@@ -1659,10 +1659,10 @@
       <c r="AJ7" s="23"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
         <v>46</v>
@@ -1715,10 +1715,10 @@
       <c r="AJ8" s="23"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1" t="s">
         <v>46</v>
@@ -1771,10 +1771,10 @@
       <c r="AJ9" s="23"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
         <v>46</v>
@@ -1831,10 +1831,10 @@
       <c r="AJ10" s="23"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
         <v>46</v>
@@ -1917,10 +1917,10 @@
       <c r="AJ11" s="23"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
         <v>46</v>
@@ -1989,10 +1989,10 @@
       <c r="AJ12" s="23"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
         <v>46</v>
@@ -2059,10 +2059,10 @@
       <c r="AJ13" s="23"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
         <v>46</v>
@@ -2119,10 +2119,10 @@
       <c r="AJ14" s="23"/>
     </row>
     <row r="15" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
         <v>46</v>
@@ -2205,11 +2205,11 @@
       <c r="AJ15" s="28"/>
     </row>
     <row r="16" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="14"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -2243,10 +2243,10 @@
       <c r="AJ16" s="31"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="51"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
         <v>46</v>
@@ -2295,8 +2295,8 @@
       <c r="AJ17" s="30"/>
     </row>
     <row r="18" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
         <v>46</v>
@@ -2345,10 +2345,10 @@
       <c r="AJ18" s="28"/>
     </row>
     <row r="19" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
@@ -2389,10 +2389,10 @@
       <c r="AJ19" s="31"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
         <v>46</v>
@@ -2455,10 +2455,10 @@
       <c r="AJ20" s="30"/>
     </row>
     <row r="21" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="43"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
         <v>46</v>
@@ -2521,11 +2521,11 @@
       <c r="AJ21" s="28"/>
     </row>
     <row r="22" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="14"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2559,10 +2559,10 @@
       <c r="AJ22" s="31"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="43"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
         <v>46</v>
@@ -2629,10 +2629,10 @@
       <c r="AJ23" s="30"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="43"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
         <v>46</v>
@@ -2650,10 +2650,10 @@
       <c r="I24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="19">
-        <v>2.1</v>
-      </c>
+      <c r="J24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="19"/>
       <c r="L24" s="1" t="s">
         <v>49</v>
       </c>
@@ -2696,15 +2696,17 @@
       <c r="AG24" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="AH24" s="23"/>
+      <c r="AH24" s="23" t="s">
+        <v>109</v>
+      </c>
       <c r="AI24" s="21"/>
       <c r="AJ24" s="23"/>
     </row>
     <row r="25" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="43"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
         <v>46</v>
@@ -2779,11 +2781,11 @@
       <c r="AJ25" s="28"/>
     </row>
     <row r="26" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="14"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2817,10 +2819,10 @@
       <c r="AJ26" s="31"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="43"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1" t="s">
         <v>49</v>
@@ -2834,10 +2836,10 @@
       <c r="I27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="3">
-        <v>2.2000000000000002</v>
-      </c>
+      <c r="J27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="3"/>
       <c r="L27" s="1" t="s">
         <v>46</v>
       </c>
@@ -2880,17 +2882,19 @@
       <c r="AG27" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AH27" s="30"/>
+      <c r="AH27" s="30" t="s">
+        <v>109</v>
+      </c>
       <c r="AI27" s="29" t="s">
         <v>114</v>
       </c>
       <c r="AJ27" s="30"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="43"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1" t="s">
         <v>49</v>
@@ -2906,10 +2910,10 @@
       <c r="I28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="19">
-        <v>2.2999999999999998</v>
-      </c>
+      <c r="J28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="19"/>
       <c r="L28" s="1" t="s">
         <v>46</v>
       </c>
@@ -2956,17 +2960,19 @@
       <c r="AG28" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="AH28" s="23"/>
+      <c r="AH28" s="23" t="s">
+        <v>109</v>
+      </c>
       <c r="AI28" s="21" t="s">
         <v>114</v>
       </c>
       <c r="AJ28" s="23"/>
     </row>
     <row r="29" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="43"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>46</v>
@@ -3035,11 +3041,11 @@
       <c r="AJ29" s="28"/>
     </row>
     <row r="30" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="14"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -3074,10 +3080,10 @@
       <c r="AJ30" s="31"/>
     </row>
     <row r="31" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="43"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1" t="s">
         <v>46</v>
@@ -3122,10 +3128,10 @@
       <c r="AJ31" s="36"/>
     </row>
     <row r="32" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="43"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="2" t="s">
         <v>50</v>
       </c>
@@ -3166,10 +3172,10 @@
       <c r="AJ32" s="31"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="43"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
         <v>46</v>
@@ -3222,10 +3228,10 @@
       <c r="AJ33" s="30"/>
     </row>
     <row r="34" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="43"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
         <v>46</v>
@@ -3294,11 +3300,11 @@
       <c r="AJ34" s="28"/>
     </row>
     <row r="35" spans="1:36" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="14"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -3332,10 +3338,10 @@
       <c r="AJ35" s="33"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="43"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="2"/>
       <c r="D36" s="1" t="s">
         <v>46</v>
@@ -3384,10 +3390,10 @@
       <c r="AJ36" s="30"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="43"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="2"/>
       <c r="D37" s="1" t="s">
         <v>46</v>
@@ -3434,10 +3440,10 @@
       <c r="AJ37" s="23"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="43"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1" t="s">
         <v>46</v>
@@ -3490,10 +3496,10 @@
       <c r="AJ38" s="23"/>
     </row>
     <row r="39" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="43"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="2"/>
       <c r="D39" s="1" t="s">
         <v>46</v>
@@ -3560,11 +3566,11 @@
       <c r="AJ39" s="28"/>
     </row>
     <row r="40" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="14"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -3598,10 +3604,10 @@
       <c r="AJ40" s="31"/>
     </row>
     <row r="41" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="43"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="2"/>
       <c r="D41" s="1" t="s">
         <v>46</v>
@@ -3650,10 +3656,10 @@
       <c r="AJ41" s="36"/>
     </row>
     <row r="42" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="43"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="2" t="s">
         <v>50</v>
       </c>
@@ -3696,10 +3702,10 @@
       <c r="AJ42" s="31"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="43"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2" t="s">
@@ -3746,10 +3752,10 @@
       <c r="AJ43" s="30"/>
     </row>
     <row r="44" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="43"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="2"/>
       <c r="D44" s="5" t="s">
         <v>46</v>
@@ -3818,40 +3824,14 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="AE2:AJ2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="X2:AC2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A3:C3"/>
@@ -3868,14 +3848,40 @@
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="AE2:AJ2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="X2:AC2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
